--- a/pcitc-stp/src/main/resources/static/budget/budget_techsplit_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_techsplit_template.xlsx
@@ -631,12 +631,12 @@
   <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,7 +656,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -712,7 +712,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
@@ -742,7 +742,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -780,18 +780,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
